--- a/pred_ohlcv/54_21/2019-10-31 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 HC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-3395.482100000002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3395.482100000002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8162.187200000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-8520.131900000002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-9164.708900000001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-9456.6947</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-11100.6677</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-11349.6741</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-11363.102</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-11368.102</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-11645.6874</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-11682.4874</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-10548.6104</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-12586.6401</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-12507.7901</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-15352.3542</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-15302.2342</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 HC ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-3395.482100000002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8162.187200000002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-9511.088000000002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-9680.456300000002</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-8520.131900000002</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-9164.708900000001</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-9456.6947</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-9639.732899999997</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-10148.1155</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-10633.258</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-10869.6845</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-10638.0728</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-10656.0663</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-11100.5677</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-11349.6741</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-11463.202</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-11463.102</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-11363.102</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-11368.102</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-11526.4612</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-11645.6874</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-11682.4874</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-10548.6104</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-12586.6401</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-15302.13419999999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-14838.8903</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-14838.8903</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-14838.8903</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-14838.8903</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-14303.7903</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-14303.7903</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-14528.7903</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
